--- a/IrbAnalyser/654654.xlsx
+++ b/IrbAnalyser/654654.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="45" windowWidth="27795" windowHeight="17175"/>
+    <workbookView xWindow="480" yWindow="135" windowWidth="27795" windowHeight="16410"/>
   </bookViews>
   <sheets>
     <sheet name="Studies" sheetId="8" r:id="rId1"/>
@@ -18,12 +18,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="286" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="306" uniqueCount="109">
   <si>
     <t>List of status to add or modify in Velos</t>
   </si>
   <si>
-    <t>Date : 4/24/2015</t>
+    <t>Date : 5/5/2015</t>
   </si>
   <si>
     <t>TYPE</t>
@@ -71,12 +71,24 @@
     <t>BRANY</t>
   </si>
   <si>
-    <t>12345-BRANY_CALENDAR_Sylvain</t>
-  </si>
-  <si>
     <t>Einstein Montefiore</t>
   </si>
   <si>
+    <t>IRB Approved</t>
+  </si>
+  <si>
+    <t>Pre Activation</t>
+  </si>
+  <si>
+    <t>Approved</t>
+  </si>
+  <si>
+    <t>IRB interface</t>
+  </si>
+  <si>
+    <t>2015-01-12T22:22:12</t>
+  </si>
+  <si>
     <t xml:space="preserve">Complete </t>
   </si>
   <si>
@@ -86,21 +98,12 @@
     <t>Closed</t>
   </si>
   <si>
-    <t>IRB interface</t>
-  </si>
-  <si>
     <t>2015-04-17T02:22:12</t>
   </si>
   <si>
-    <t>Modified status</t>
-  </si>
-  <si>
     <t>IRB Amendment submitted**</t>
   </si>
   <si>
-    <t>Pre Activation</t>
-  </si>
-  <si>
     <t>2015-03-12T08:22:12</t>
   </si>
   <si>
@@ -110,12 +113,6 @@
     <t>Disapproved</t>
   </si>
   <si>
-    <t>IRB Approved</t>
-  </si>
-  <si>
-    <t>2015-01-12T22:22:12</t>
-  </si>
-  <si>
     <t>2016-01-12T22:22:12</t>
   </si>
   <si>
@@ -140,18 +137,12 @@
     <t>Other than Human Subject Rsrch</t>
   </si>
   <si>
-    <t>15CDA003-Sylvain</t>
-  </si>
-  <si>
     <t>Undefined IRB Event</t>
   </si>
   <si>
     <t>Pending Closure</t>
   </si>
   <si>
-    <t>Approved</t>
-  </si>
-  <si>
     <t>List of team members to add or modify in Velos</t>
   </si>
   <si>
@@ -173,7 +164,7 @@
     <t>Group</t>
   </si>
   <si>
-    <t>Modified member</t>
+    <t>New member</t>
   </si>
   <si>
     <t>sylvain.bouchard@einstein.yu.edu</t>
@@ -191,7 +182,16 @@
     <t>Study team</t>
   </si>
   <si>
-    <t>New member</t>
+    <t>shantha.bethusamy@einstein.yu.edu</t>
+  </si>
+  <si>
+    <t>Shantha</t>
+  </si>
+  <si>
+    <t>Bethusamy</t>
+  </si>
+  <si>
+    <t>PI</t>
   </si>
   <si>
     <t>romero@bou.com</t>
@@ -206,15 +206,6 @@
     <t>Montefiore (Einstein Liver Center)</t>
   </si>
   <si>
-    <t>shantha.bethusamy@einstein.yu.edu</t>
-  </si>
-  <si>
-    <t>Shantha</t>
-  </si>
-  <si>
-    <t>Bethusamy</t>
-  </si>
-  <si>
     <t>Limited PI</t>
   </si>
   <si>
@@ -224,15 +215,12 @@
     <t>Local sample size</t>
   </si>
   <si>
-    <t>Modified site</t>
+    <t>New Site</t>
   </si>
   <si>
     <t>brany</t>
   </si>
   <si>
-    <t>New Site</t>
-  </si>
-  <si>
     <t>List of version (attachment) to add or modify in Velos</t>
   </si>
   <si>
@@ -266,6 +254,9 @@
     <t>BRANY informed consent</t>
   </si>
   <si>
+    <t>www.pinkbike.com</t>
+  </si>
+  <si>
     <t>List of studies to create or modify in Velos</t>
   </si>
   <si>
@@ -308,15 +299,24 @@
     <t>Sponsor Protocol ID</t>
   </si>
   <si>
-    <t>Modified study</t>
+    <t>New study</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15BRANY PLEASE COMPLETE </t>
   </si>
   <si>
     <t>George Romero</t>
   </si>
   <si>
+    <t>Shantha Bethusamy</t>
+  </si>
+  <si>
     <t>A study</t>
   </si>
   <si>
+    <t>A study about bla bla bla</t>
+  </si>
+  <si>
     <t>NA</t>
   </si>
   <si>
@@ -329,13 +329,7 @@
     <t>Roger Walter</t>
   </si>
   <si>
-    <t>New study</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15BRANY PLEASE COMPLETE </t>
-  </si>
-  <si>
-    <t>A study about bla bla bla</t>
+    <t xml:space="preserve"> </t>
   </si>
   <si>
     <t>Multicenter</t>
@@ -351,9 +345,6 @@
   </si>
   <si>
     <t>Testing 54321</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> </t>
   </si>
 </sst>
 </file>
@@ -740,7 +731,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q7"/>
+  <dimension ref="A1:Q8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -750,7 +741,7 @@
     <col min="2" max="2" width="16.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="31.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="26.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="21.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="20" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="12.85546875" style="1" bestFit="1" customWidth="1"/>
@@ -768,7 +759,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="B1" s="4" t="s">
         <v>1</v>
@@ -803,48 +794,48 @@
         <v>5</v>
       </c>
       <c r="E2" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="H2" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="I2" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="G2" s="4" t="s">
+      <c r="J2" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="H2" s="4" t="s">
+      <c r="K2" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="I2" s="4" t="s">
+      <c r="L2" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="J2" s="4" t="s">
+      <c r="M2" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="K2" s="4" t="s">
+      <c r="N2" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="L2" s="4" t="s">
+      <c r="O2" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="M2" s="4" t="s">
+      <c r="P2" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="N2" s="4" t="s">
+      <c r="Q2" s="4" t="s">
         <v>92</v>
-      </c>
-      <c r="O2" s="4" t="s">
-        <v>93</v>
-      </c>
-      <c r="P2" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="Q2" s="4" t="s">
-        <v>95</v>
       </c>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>16</v>
@@ -856,16 +847,20 @@
         <v>12345</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>17</v>
+        <v>94</v>
       </c>
       <c r="F3" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="H3" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="G3" s="2"/>
-      <c r="H3" s="2" t="s">
+      <c r="I3" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="I3" s="2"/>
       <c r="J3" s="2"/>
       <c r="K3" s="2"/>
       <c r="L3" s="2"/>
@@ -887,7 +882,7 @@
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>16</v>
@@ -899,16 +894,20 @@
         <v>12345</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>17</v>
+        <v>94</v>
       </c>
       <c r="F4" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="H4" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="G4" s="3"/>
-      <c r="H4" s="3" t="s">
+      <c r="I4" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="I4" s="3"/>
       <c r="J4" s="3"/>
       <c r="K4" s="3"/>
       <c r="L4" s="3"/>
@@ -930,25 +929,27 @@
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>103</v>
+        <v>93</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>16</v>
       </c>
       <c r="C5" s="2">
-        <v>123465498</v>
+        <v>456</v>
       </c>
       <c r="D5" s="2">
-        <v>4564654</v>
+        <v>456</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>104</v>
+        <v>94</v>
       </c>
       <c r="F5" s="2"/>
       <c r="G5" s="2"/>
-      <c r="H5" s="2"/>
-      <c r="I5" s="2" t="s">
-        <v>105</v>
+      <c r="H5" s="2">
+        <v>456</v>
+      </c>
+      <c r="I5" s="2">
+        <v>456456</v>
       </c>
       <c r="J5" s="2"/>
       <c r="K5" s="2"/>
@@ -957,97 +958,134 @@
         <v>99</v>
       </c>
       <c r="N5" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="O5" s="2" t="s">
-        <v>107</v>
-      </c>
+        <v>100</v>
+      </c>
+      <c r="O5" s="2"/>
       <c r="P5" s="2" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="Q5" s="2"/>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>16</v>
       </c>
       <c r="C6" s="3">
-        <v>54321</v>
+        <v>123465498</v>
       </c>
       <c r="D6" s="3">
-        <v>54321</v>
+        <v>4564654</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="F6" s="3" t="s">
-        <v>109</v>
-      </c>
+        <v>94</v>
+      </c>
+      <c r="F6" s="3"/>
       <c r="G6" s="3"/>
-      <c r="H6" s="3" t="s">
-        <v>110</v>
-      </c>
+      <c r="H6" s="3"/>
       <c r="I6" s="3" t="s">
-        <v>110</v>
+        <v>98</v>
       </c>
       <c r="J6" s="3"/>
       <c r="K6" s="3"/>
-      <c r="L6" s="3">
-        <v>5</v>
-      </c>
+      <c r="L6" s="3"/>
       <c r="M6" s="3" t="s">
         <v>99</v>
       </c>
       <c r="N6" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="O6" s="3"/>
+        <v>104</v>
+      </c>
+      <c r="O6" s="3" t="s">
+        <v>105</v>
+      </c>
       <c r="P6" s="3" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="Q6" s="3"/>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>103</v>
+        <v>93</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>16</v>
       </c>
       <c r="C7" s="2">
-        <v>56653321</v>
+        <v>54321</v>
       </c>
       <c r="D7" s="2">
-        <v>6554444</v>
+        <v>54321</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="F7" s="2"/>
+        <v>94</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>107</v>
+      </c>
       <c r="G7" s="2"/>
-      <c r="H7" s="2"/>
+      <c r="H7" s="2" t="s">
+        <v>108</v>
+      </c>
       <c r="I7" s="2" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="J7" s="2"/>
       <c r="K7" s="2"/>
-      <c r="L7" s="2"/>
+      <c r="L7" s="2">
+        <v>5</v>
+      </c>
       <c r="M7" s="2" t="s">
         <v>99</v>
       </c>
       <c r="N7" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="O7" s="2"/>
+      <c r="P7" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="Q7" s="2"/>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A8" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C8" s="3">
+        <v>56653321</v>
+      </c>
+      <c r="D8" s="3">
+        <v>6554444</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="F8" s="3"/>
+      <c r="G8" s="3"/>
+      <c r="H8" s="3"/>
+      <c r="I8" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="J8" s="3"/>
+      <c r="K8" s="3"/>
+      <c r="L8" s="3"/>
+      <c r="M8" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="N8" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="O8" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="P8" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="O7" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="P7" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="Q7" s="2"/>
+      <c r="Q8" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1056,7 +1094,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J6"/>
+  <dimension ref="A1:J7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1066,18 +1104,18 @@
     <col min="2" max="2" width="16.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="6.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="31.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="12.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="23.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="16.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="16.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="18.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="13.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="11" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="B1" s="4" t="s">
         <v>1</v>
@@ -1108,139 +1146,159 @@
         <v>6</v>
       </c>
       <c r="F2" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="I2" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="J2" s="4" t="s">
         <v>72</v>
-      </c>
-      <c r="G2" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="H2" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="I2" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="J2" s="4" t="s">
-        <v>76</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" s="2">
         <v>12345</v>
       </c>
-      <c r="E3" s="2" t="s">
-        <v>17</v>
-      </c>
+      <c r="E3" s="2"/>
       <c r="F3" s="5">
-        <v>42118</v>
+        <v>42129</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>43</v>
+        <v>20</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="C4" s="3"/>
       <c r="D4" s="3">
         <v>12345</v>
       </c>
-      <c r="E4" s="3" t="s">
-        <v>17</v>
-      </c>
+      <c r="E4" s="3"/>
       <c r="F4" s="6">
-        <v>42118</v>
+        <v>42129</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="I4" s="3">
         <v>546654</v>
       </c>
       <c r="J4" s="3" t="s">
-        <v>43</v>
+        <v>20</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" s="2">
         <v>12345</v>
       </c>
-      <c r="E5" s="2" t="s">
-        <v>17</v>
-      </c>
+      <c r="E5" s="2"/>
       <c r="F5" s="5">
-        <v>42118</v>
+        <v>42129</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>43</v>
+        <v>20</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="C6" s="3"/>
       <c r="D6" s="3">
         <v>12345</v>
       </c>
-      <c r="E6" s="3" t="s">
-        <v>17</v>
-      </c>
+      <c r="E6" s="3"/>
       <c r="F6" s="6">
-        <v>42118</v>
+        <v>42129</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="H6" s="3" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="I6" s="3">
         <v>546654</v>
       </c>
       <c r="J6" s="3" t="s">
-        <v>43</v>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="C7" s="2"/>
+      <c r="D7" s="2">
+        <v>54321</v>
+      </c>
+      <c r="E7" s="2"/>
+      <c r="F7" s="5">
+        <v>42129</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>20</v>
       </c>
     </row>
   </sheetData>
@@ -1250,7 +1308,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G7"/>
+  <dimension ref="A1:G8"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1260,7 +1318,7 @@
     <col min="2" max="2" width="16.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="6.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="31.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="22.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="16.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="16384" width="9.140625" style="1"/>
@@ -1268,7 +1326,7 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="B1" s="4" t="s">
         <v>1</v>
@@ -1299,25 +1357,23 @@
         <v>7</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" s="2">
         <v>12345</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="E3" s="2"/>
+      <c r="F3" s="2" t="s">
         <v>17</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>18</v>
       </c>
       <c r="G3" s="2">
         <v>5</v>
@@ -1325,20 +1381,18 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="C4" s="3"/>
       <c r="D4" s="3">
         <v>12345</v>
       </c>
-      <c r="E4" s="3" t="s">
-        <v>17</v>
-      </c>
+      <c r="E4" s="3"/>
       <c r="F4" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G4" s="3">
         <v>5</v>
@@ -1346,39 +1400,35 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" s="2">
-        <v>4564654</v>
+        <v>456</v>
       </c>
       <c r="E5" s="2"/>
       <c r="F5" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="G5" s="2">
-        <v>5</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G5" s="2"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="C6" s="3"/>
       <c r="D6" s="3">
-        <v>54321</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>40</v>
-      </c>
+        <v>4564654</v>
+      </c>
+      <c r="E6" s="3"/>
       <c r="F6" s="3" t="s">
-        <v>33</v>
+        <v>17</v>
       </c>
       <c r="G6" s="3">
         <v>5</v>
@@ -1386,20 +1436,39 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" s="2">
-        <v>6554444</v>
+        <v>54321</v>
       </c>
       <c r="E7" s="2"/>
       <c r="F7" s="2" t="s">
-        <v>18</v>
+        <v>32</v>
       </c>
       <c r="G7" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="C8" s="3"/>
+      <c r="D8" s="3">
+        <v>6554444</v>
+      </c>
+      <c r="E8" s="3"/>
+      <c r="F8" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G8" s="3">
         <v>5</v>
       </c>
     </row>
@@ -1410,7 +1479,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L6"/>
+  <dimension ref="A1:L7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1420,7 +1489,7 @@
     <col min="2" max="2" width="16.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="6.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="31.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="35.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="17.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="10.28515625" style="1" bestFit="1" customWidth="1"/>
@@ -1433,7 +1502,7 @@
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="B1" s="4" t="s">
         <v>1</v>
@@ -1466,22 +1535,22 @@
         <v>6</v>
       </c>
       <c r="F2" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="I2" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="G2" s="4" t="s">
+      <c r="J2" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="H2" s="4" t="s">
+      <c r="K2" s="4" t="s">
         <v>47</v>
-      </c>
-      <c r="I2" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="J2" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="K2" s="4" t="s">
-        <v>50</v>
       </c>
       <c r="L2" s="4" t="s">
         <v>7</v>
@@ -1489,7 +1558,7 @@
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>16</v>
@@ -1500,30 +1569,30 @@
       <c r="D3" s="2">
         <v>12345</v>
       </c>
-      <c r="E3" s="2" t="s">
-        <v>17</v>
-      </c>
+      <c r="E3" s="2"/>
       <c r="F3" s="2" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="G3" s="2"/>
       <c r="H3" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="K3" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="I3" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="J3" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="K3" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="L3" s="2"/>
+      <c r="L3" s="2" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>16</v>
@@ -1534,68 +1603,66 @@
       <c r="D4" s="3">
         <v>12345</v>
       </c>
-      <c r="E4" s="3" t="s">
+      <c r="E4" s="3"/>
+      <c r="F4" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="G4" s="3"/>
+      <c r="H4" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="I4" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="J4" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="K4" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="L4" s="3" t="s">
         <v>17</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="G4" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="H4" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="I4" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="J4" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="K4" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="L4" s="3" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>16</v>
       </c>
       <c r="C5" s="2">
-        <v>54321</v>
+        <v>12345</v>
       </c>
       <c r="D5" s="2">
-        <v>54321</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>40</v>
-      </c>
+        <v>12345</v>
+      </c>
+      <c r="E5" s="2"/>
       <c r="F5" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="J5" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="G5" s="2"/>
-      <c r="H5" s="2" t="s">
+      <c r="K5" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="I5" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="J5" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="K5" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="L5" s="2"/>
+      <c r="L5" s="2" t="s">
+        <v>61</v>
+      </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>16</v>
@@ -1606,26 +1673,60 @@
       <c r="D6" s="3">
         <v>54321</v>
       </c>
-      <c r="E6" s="3" t="s">
-        <v>40</v>
-      </c>
+      <c r="E6" s="3"/>
       <c r="F6" s="3" t="s">
-        <v>62</v>
+        <v>49</v>
       </c>
       <c r="G6" s="3"/>
       <c r="H6" s="3" t="s">
-        <v>63</v>
+        <v>50</v>
       </c>
       <c r="I6" s="3" t="s">
-        <v>64</v>
+        <v>51</v>
       </c>
       <c r="J6" s="3" t="s">
-        <v>65</v>
+        <v>52</v>
       </c>
       <c r="K6" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="L6" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C7" s="2">
+        <v>54321</v>
+      </c>
+      <c r="D7" s="2">
+        <v>54321</v>
+      </c>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="G7" s="2"/>
+      <c r="H7" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="I7" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="L6" s="3"/>
+      <c r="J7" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="K7" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="L7" s="2" t="s">
+        <v>17</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1634,7 +1735,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M13"/>
+  <dimension ref="A1:M14"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1644,7 +1745,7 @@
     <col min="2" max="2" width="16.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="31.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="22.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="41" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
@@ -1729,33 +1830,31 @@
       <c r="D3" s="2">
         <v>12345</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="E3" s="2"/>
+      <c r="F3" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F3" s="2" t="s">
+      <c r="G3" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="G3" s="2" t="s">
+      <c r="H3" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="H3" s="2" t="s">
+      <c r="I3" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="I3" s="2" t="s">
+      <c r="J3" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="J3" s="2" t="s">
+      <c r="K3" s="2" t="s">
         <v>22</v>
-      </c>
-      <c r="K3" s="2" t="s">
-        <v>23</v>
       </c>
       <c r="L3" s="2"/>
       <c r="M3" s="2"/>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>16</v>
@@ -1766,35 +1865,31 @@
       <c r="D4" s="3">
         <v>12345</v>
       </c>
-      <c r="E4" s="3" t="s">
+      <c r="E4" s="3"/>
+      <c r="F4" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="F4" s="3" t="s">
-        <v>18</v>
-      </c>
       <c r="G4" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="I4" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="H4" s="3" t="s">
+      <c r="J4" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="K4" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="I4" s="3"/>
-      <c r="J4" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="K4" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="L4" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="M4" s="3" t="s">
-        <v>29</v>
-      </c>
+      <c r="L4" s="3"/>
+      <c r="M4" s="3"/>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>16</v>
@@ -1805,29 +1900,29 @@
       <c r="D5" s="2">
         <v>12345</v>
       </c>
-      <c r="E5" s="2" t="s">
+      <c r="E5" s="2"/>
+      <c r="F5" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F5" s="2" t="s">
-        <v>18</v>
-      </c>
       <c r="G5" s="2" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="I5" s="2"/>
       <c r="J5" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="L5" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="M5" s="2"/>
+        <v>29</v>
+      </c>
+      <c r="M5" s="2" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
@@ -1842,28 +1937,26 @@
       <c r="D6" s="3">
         <v>12345</v>
       </c>
-      <c r="E6" s="3" t="s">
+      <c r="E6" s="3"/>
+      <c r="F6" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="F6" s="3" t="s">
-        <v>33</v>
-      </c>
       <c r="G6" s="3" t="s">
-        <v>34</v>
+        <v>18</v>
       </c>
       <c r="H6" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="I6" s="3" t="s">
-        <v>35</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="I6" s="3"/>
       <c r="J6" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="K6" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="K6" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="L6" s="3"/>
+      <c r="L6" s="3" t="s">
+        <v>31</v>
+      </c>
       <c r="M6" s="3"/>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
@@ -1879,28 +1972,26 @@
       <c r="D7" s="2">
         <v>12345</v>
       </c>
-      <c r="E7" s="2" t="s">
-        <v>17</v>
-      </c>
+      <c r="E7" s="2"/>
       <c r="F7" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="G7" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="G7" s="2" t="s">
-        <v>30</v>
-      </c>
       <c r="H7" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="I7" s="2"/>
+        <v>24</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>34</v>
+      </c>
       <c r="J7" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K7" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="L7" s="2" t="s">
-        <v>32</v>
-      </c>
+        <v>28</v>
+      </c>
+      <c r="L7" s="2"/>
       <c r="M7" s="2"/>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
@@ -1911,31 +2002,31 @@
         <v>16</v>
       </c>
       <c r="C8" s="3">
-        <v>123465498</v>
+        <v>12345</v>
       </c>
       <c r="D8" s="3">
-        <v>4564654</v>
+        <v>12345</v>
       </c>
       <c r="E8" s="3"/>
       <c r="F8" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>36</v>
+        <v>18</v>
       </c>
       <c r="H8" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="I8" s="3" t="s">
-        <v>37</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="I8" s="3"/>
       <c r="J8" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="K8" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="K8" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="L8" s="3"/>
+      <c r="L8" s="3" t="s">
+        <v>31</v>
+      </c>
       <c r="M8" s="3"/>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
@@ -1953,22 +2044,22 @@
       </c>
       <c r="E9" s="2"/>
       <c r="F9" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>38</v>
+        <v>19</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="J9" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K9" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="L9" s="2"/>
       <c r="M9" s="2"/>
@@ -1981,31 +2072,29 @@
         <v>16</v>
       </c>
       <c r="C10" s="3">
-        <v>54321</v>
+        <v>123465498</v>
       </c>
       <c r="D10" s="3">
-        <v>54321</v>
-      </c>
-      <c r="E10" s="3" t="s">
-        <v>40</v>
-      </c>
+        <v>4564654</v>
+      </c>
+      <c r="E10" s="3"/>
       <c r="F10" s="3" t="s">
-        <v>18</v>
+        <v>32</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H10" s="3" t="s">
-        <v>26</v>
+        <v>37</v>
       </c>
       <c r="I10" s="3" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="J10" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K10" s="3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="L10" s="3"/>
       <c r="M10" s="3"/>
@@ -2023,26 +2112,24 @@
       <c r="D11" s="2">
         <v>54321</v>
       </c>
-      <c r="E11" s="2" t="s">
-        <v>40</v>
-      </c>
+      <c r="E11" s="2"/>
       <c r="F11" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="J11" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K11" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="L11" s="2"/>
       <c r="M11" s="2"/>
@@ -2055,28 +2142,30 @@
         <v>16</v>
       </c>
       <c r="C12" s="3">
-        <v>56653321</v>
+        <v>54321</v>
       </c>
       <c r="D12" s="3">
-        <v>6554444</v>
+        <v>54321</v>
       </c>
       <c r="E12" s="3"/>
       <c r="F12" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G12" s="3" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="H12" s="3" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="I12" s="3" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="J12" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="K12" s="3"/>
+        <v>21</v>
+      </c>
+      <c r="K12" s="3" t="s">
+        <v>28</v>
+      </c>
       <c r="L12" s="3"/>
       <c r="M12" s="3"/>
     </row>
@@ -2095,26 +2184,59 @@
       </c>
       <c r="E13" s="2"/>
       <c r="F13" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G13" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="G13" s="2" t="s">
-        <v>25</v>
-      </c>
       <c r="H13" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="I13" s="2"/>
+        <v>19</v>
+      </c>
+      <c r="I13" s="2" t="s">
+        <v>20</v>
+      </c>
       <c r="J13" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="K13" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="K13" s="2"/>
+      <c r="L13" s="2"/>
+      <c r="M13" s="2"/>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A14" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C14" s="3">
+        <v>56653321</v>
+      </c>
+      <c r="D14" s="3">
+        <v>6554444</v>
+      </c>
+      <c r="E14" s="3"/>
+      <c r="F14" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G14" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="L13" s="2" t="s">
+      <c r="H14" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="I14" s="3"/>
+      <c r="J14" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="K14" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="M13" s="2" t="s">
-        <v>43</v>
+      <c r="L14" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="M14" s="3" t="s">
+        <v>20</v>
       </c>
     </row>
   </sheetData>
